--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>net_idx</t>
   </si>
@@ -81,6 +81,9 @@
     <t>txt_line_width</t>
   </si>
   <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -105,22 +108,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[355, 628]</t>
-  </si>
-  <si>
-    <t>[343, 639]</t>
-  </si>
-  <si>
-    <t>[803, 425]</t>
-  </si>
-  <si>
-    <t>[466, 697]</t>
-  </si>
-  <si>
-    <t>[376, 514]</t>
-  </si>
-  <si>
-    <t>[411, 330]</t>
+    <t>[465, 379]</t>
+  </si>
+  <si>
+    <t>[836, 621]</t>
+  </si>
+  <si>
+    <t>[820, 378]</t>
+  </si>
+  <si>
+    <t>[814, 757]</t>
+  </si>
+  <si>
+    <t>[51, 61]</t>
+  </si>
+  <si>
+    <t>[605, 413]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -216,34 +219,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[395.5, 591.0]</t>
-  </si>
-  <si>
-    <t>[379.0, 653.5]</t>
-  </si>
-  <si>
-    <t>[603.0, 552.0]</t>
-  </si>
-  <si>
-    <t>[664.5, 581.0]</t>
-  </si>
-  <si>
-    <t>[468.5, 533.5]</t>
-  </si>
-  <si>
-    <t>[[395.5, 591.0], [400.75, 562.5], [390.25, 619.5]]</t>
-  </si>
-  <si>
-    <t>[[379.0, 653.5], [382.0, 650.75], [376.0, 656.25]]</t>
-  </si>
-  <si>
-    <t>[[603.0, 552.0], [488.0, 605.5], [718.0, 498.5]]</t>
-  </si>
-  <si>
-    <t>[[664.5, 581.0], [748.75, 513.0], [580.25, 649.0]]</t>
-  </si>
-  <si>
-    <t>[[468.5, 533.5], [482.25, 625.25], [454.75, 441.75]]</t>
+    <t>[288.0, 240.0]</t>
+  </si>
+  <si>
+    <t>[680.5, 520.0]</t>
+  </si>
+  <si>
+    <t>[858.0, 519.5]</t>
+  </si>
+  <si>
+    <t>[847.0, 587.5]</t>
+  </si>
+  <si>
+    <t>[739.5, 605.0]</t>
+  </si>
+  <si>
+    <t>[[288.0, 240.0], [184.5, 160.5], [391.5, 319.5]]</t>
+  </si>
+  <si>
+    <t>[[680.5, 520.0], [587.75, 459.5], [773.25, 580.5]]</t>
+  </si>
+  <si>
+    <t>[[858.0, 519.5], [862.0, 580.25], [854.0, 458.75]]</t>
+  </si>
+  <si>
+    <t>[[847.0, 587.5], [848.5, 492.75], [845.5, 682.25]]</t>
+  </si>
+  <si>
+    <t>[[739.5, 605.0], [791.75, 691.0], [687.25, 519.0]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -672,13 +675,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,8 +733,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -748,46 +754,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -804,46 +813,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -860,46 +872,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -916,46 +931,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -972,46 +990,49 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1028,43 +1049,46 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7">
         <v>1</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1091,34 +1115,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1132,37 +1156,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1176,37 +1200,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1220,37 +1244,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1264,37 +1288,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1308,37 +1332,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>net_idx</t>
   </si>
@@ -108,22 +108,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[465, 379]</t>
-  </si>
-  <si>
-    <t>[836, 621]</t>
-  </si>
-  <si>
-    <t>[820, 378]</t>
-  </si>
-  <si>
-    <t>[814, 757]</t>
-  </si>
-  <si>
-    <t>[51, 61]</t>
-  </si>
-  <si>
-    <t>[605, 413]</t>
+    <t>[61, 557]</t>
+  </si>
+  <si>
+    <t>[612, 540]</t>
+  </si>
+  <si>
+    <t>[531, 71]</t>
+  </si>
+  <si>
+    <t>[337, 625]</t>
+  </si>
+  <si>
+    <t>[276, 681]</t>
+  </si>
+  <si>
+    <t>[218, 282]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -165,6 +165,9 @@
     <t>arrow_head_size</t>
   </si>
   <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -219,34 +222,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[288.0, 240.0]</t>
-  </si>
-  <si>
-    <t>[680.5, 520.0]</t>
-  </si>
-  <si>
-    <t>[858.0, 519.5]</t>
-  </si>
-  <si>
-    <t>[847.0, 587.5]</t>
-  </si>
-  <si>
-    <t>[739.5, 605.0]</t>
-  </si>
-  <si>
-    <t>[[288.0, 240.0], [184.5, 160.5], [391.5, 319.5]]</t>
-  </si>
-  <si>
-    <t>[[680.5, 520.0], [587.75, 459.5], [773.25, 580.5]]</t>
-  </si>
-  <si>
-    <t>[[858.0, 519.5], [862.0, 580.25], [854.0, 458.75]]</t>
-  </si>
-  <si>
-    <t>[[847.0, 587.5], [848.5, 492.75], [845.5, 682.25]]</t>
-  </si>
-  <si>
-    <t>[[739.5, 605.0], [791.75, 691.0], [687.25, 519.0]]</t>
+    <t>[198.5, 639.0]</t>
+  </si>
+  <si>
+    <t>[366.5, 568.5]</t>
+  </si>
+  <si>
+    <t>[601.5, 325.5]</t>
+  </si>
+  <si>
+    <t>[464.0, 368.0]</t>
+  </si>
+  <si>
+    <t>[307.5, 473.5]</t>
+  </si>
+  <si>
+    <t>[[198.5, 639.0], [252.25, 670.0], [144.75, 608.0]]</t>
+  </si>
+  <si>
+    <t>[[366.5, 568.5], [228.75, 572.75], [504.25, 564.25]]</t>
+  </si>
+  <si>
+    <t>[[601.5, 325.5], [621.75, 442.75], [581.25, 208.25]]</t>
+  </si>
+  <si>
+    <t>[[464.0, 368.0], [512.5, 229.5], [415.5, 506.5]]</t>
+  </si>
+  <si>
+    <t>[[307.5, 473.5], [337.25, 559.25], [277.75, 387.75]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -1098,13 +1101,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1147,11 @@
       <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1156,40 +1162,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1200,40 +1209,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1244,40 +1256,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1288,40 +1303,43 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1332,37 +1350,40 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>net_idx</t>
   </si>
@@ -108,22 +108,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[61, 557]</t>
-  </si>
-  <si>
-    <t>[612, 540]</t>
-  </si>
-  <si>
-    <t>[531, 71]</t>
-  </si>
-  <si>
-    <t>[337, 625]</t>
-  </si>
-  <si>
-    <t>[276, 681]</t>
-  </si>
-  <si>
-    <t>[218, 282]</t>
+    <t>[412, 145]</t>
+  </si>
+  <si>
+    <t>[711, 476]</t>
+  </si>
+  <si>
+    <t>[833, 207]</t>
+  </si>
+  <si>
+    <t>[229, 629]</t>
+  </si>
+  <si>
+    <t>[510, 359]</t>
+  </si>
+  <si>
+    <t>[399, 136]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -168,6 +168,9 @@
     <t>rxn_dash</t>
   </si>
   <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -222,34 +225,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[198.5, 639.0]</t>
-  </si>
-  <si>
-    <t>[366.5, 568.5]</t>
-  </si>
-  <si>
-    <t>[601.5, 325.5]</t>
-  </si>
-  <si>
-    <t>[464.0, 368.0]</t>
-  </si>
-  <si>
-    <t>[307.5, 473.5]</t>
-  </si>
-  <si>
-    <t>[[198.5, 639.0], [252.25, 670.0], [144.75, 608.0]]</t>
-  </si>
-  <si>
-    <t>[[366.5, 568.5], [228.75, 572.75], [504.25, 564.25]]</t>
-  </si>
-  <si>
-    <t>[[601.5, 325.5], [621.75, 442.75], [581.25, 208.25]]</t>
-  </si>
-  <si>
-    <t>[[464.0, 368.0], [512.5, 229.5], [415.5, 506.5]]</t>
-  </si>
-  <si>
-    <t>[[307.5, 473.5], [337.25, 559.25], [277.75, 387.75]]</t>
+    <t>[491.0, 272.0]</t>
+  </si>
+  <si>
+    <t>[591.5, 330.5]</t>
+  </si>
+  <si>
+    <t>[802.0, 361.5]</t>
+  </si>
+  <si>
+    <t>[561.0, 438.0]</t>
+  </si>
+  <si>
+    <t>[344.0, 402.5]</t>
+  </si>
+  <si>
+    <t>[[491.0, 272.0], [515.5, 325.5], [466.5, 218.5]]</t>
+  </si>
+  <si>
+    <t>[[591.5, 330.5], [516.75, 247.75], [666.25, 413.25]]</t>
+  </si>
+  <si>
+    <t>[[802.0, 361.5], [771.5, 428.75], [832.5, 294.25]]</t>
+  </si>
+  <si>
+    <t>[[561.0, 438.0], [712.0, 332.5], [410.0, 543.5]]</t>
+  </si>
+  <si>
+    <t>[[344.0, 402.5], [301.5, 525.75], [386.5, 279.25]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -1101,13 +1104,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1153,11 @@
       <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1162,43 +1168,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1209,43 +1218,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1256,43 +1268,46 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1303,43 +1318,46 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1350,40 +1368,43 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -108,22 +117,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[412, 145]</t>
-  </si>
-  <si>
-    <t>[711, 476]</t>
-  </si>
-  <si>
-    <t>[833, 207]</t>
-  </si>
-  <si>
-    <t>[229, 629]</t>
-  </si>
-  <si>
-    <t>[510, 359]</t>
-  </si>
-  <si>
-    <t>[399, 136]</t>
+    <t>[147, 621]</t>
+  </si>
+  <si>
+    <t>[457, 651]</t>
+  </si>
+  <si>
+    <t>[149, 661]</t>
+  </si>
+  <si>
+    <t>[631, 185]</t>
+  </si>
+  <si>
+    <t>[338, 591]</t>
+  </si>
+  <si>
+    <t>[767, 682]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -138,6 +147,9 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -219,40 +231,37 @@
     <t>J4_V4 * S4 / (J4_KS4 + S4)</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[491.0, 272.0]</t>
-  </si>
-  <si>
-    <t>[591.5, 330.5]</t>
-  </si>
-  <si>
-    <t>[802.0, 361.5]</t>
-  </si>
-  <si>
-    <t>[561.0, 438.0]</t>
-  </si>
-  <si>
-    <t>[344.0, 402.5]</t>
-  </si>
-  <si>
-    <t>[[491.0, 272.0], [515.5, 325.5], [466.5, 218.5]]</t>
-  </si>
-  <si>
-    <t>[[591.5, 330.5], [516.75, 247.75], [666.25, 413.25]]</t>
-  </si>
-  <si>
-    <t>[[802.0, 361.5], [771.5, 428.75], [832.5, 294.25]]</t>
-  </si>
-  <si>
-    <t>[[561.0, 438.0], [712.0, 332.5], [410.0, 543.5]]</t>
-  </si>
-  <si>
-    <t>[[344.0, 402.5], [301.5, 525.75], [386.5, 279.25]]</t>
+    <t>[272.5, 626.0]</t>
+  </si>
+  <si>
+    <t>[332.0, 656.0]</t>
+  </si>
+  <si>
+    <t>[333.0, 676.0]</t>
+  </si>
+  <si>
+    <t>[420.0, 443.0]</t>
+  </si>
+  <si>
+    <t>[729.0, 453.5]</t>
+  </si>
+  <si>
+    <t>[[272.5, 626.0], [320.25, 618.5], [224.75, 633.5]]</t>
+  </si>
+  <si>
+    <t>[[332.0, 656.0], [254.5, 648.5], [409.5, 663.5]]</t>
+  </si>
+  <si>
+    <t>[[333.0, 676.0], [410.0, 673.5], [256.0, 678.5]]</t>
+  </si>
+  <si>
+    <t>[[420.0, 443.0], [299.5, 562.0], [540.5, 324.0]]</t>
+  </si>
+  <si>
+    <t>[[729.0, 453.5], [695.0, 329.25], [763.0, 577.75]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -681,13 +690,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,8 +751,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -760,40 +778,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -801,8 +819,11 @@
       <c r="S2">
         <v>12</v>
       </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -819,40 +840,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -860,8 +881,11 @@
       <c r="S3">
         <v>12</v>
       </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -878,40 +902,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -919,8 +943,11 @@
       <c r="S4">
         <v>12</v>
       </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -937,40 +964,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -978,8 +1005,11 @@
       <c r="S5">
         <v>12</v>
       </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -996,40 +1026,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1037,8 +1067,11 @@
       <c r="S6">
         <v>12</v>
       </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1055,46 +1088,49 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
         <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1121,40 +1157,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1168,40 +1204,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -1218,40 +1254,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -1268,40 +1304,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1318,40 +1354,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -1368,40 +1404,40 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>net_idx</t>
   </si>
@@ -117,22 +118,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[147, 621]</t>
-  </si>
-  <si>
-    <t>[457, 651]</t>
-  </si>
-  <si>
-    <t>[149, 661]</t>
-  </si>
-  <si>
-    <t>[631, 185]</t>
-  </si>
-  <si>
-    <t>[338, 591]</t>
-  </si>
-  <si>
-    <t>[767, 682]</t>
+    <t>[786, 154]</t>
+  </si>
+  <si>
+    <t>[640, 774]</t>
+  </si>
+  <si>
+    <t>[524, 839]</t>
+  </si>
+  <si>
+    <t>[420, 803]</t>
+  </si>
+  <si>
+    <t>[50, 354]</t>
+  </si>
+  <si>
+    <t>[749, 463]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -234,37 +235,40 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[272.5, 626.0]</t>
-  </si>
-  <si>
-    <t>[332.0, 656.0]</t>
-  </si>
-  <si>
-    <t>[333.0, 676.0]</t>
-  </si>
-  <si>
-    <t>[420.0, 443.0]</t>
-  </si>
-  <si>
-    <t>[729.0, 453.5]</t>
-  </si>
-  <si>
-    <t>[[272.5, 626.0], [320.25, 618.5], [224.75, 633.5]]</t>
-  </si>
-  <si>
-    <t>[[332.0, 656.0], [254.5, 648.5], [409.5, 663.5]]</t>
-  </si>
-  <si>
-    <t>[[333.0, 676.0], [410.0, 673.5], [256.0, 678.5]]</t>
-  </si>
-  <si>
-    <t>[[420.0, 443.0], [299.5, 562.0], [540.5, 324.0]]</t>
-  </si>
-  <si>
-    <t>[[729.0, 453.5], [695.0, 329.25], [763.0, 577.75]]</t>
+    <t>[448.0, 274.0]</t>
+  </si>
+  <si>
+    <t>[743.0, 484.0]</t>
+  </si>
+  <si>
+    <t>[612.0, 826.5]</t>
+  </si>
+  <si>
+    <t>[502.0, 841.0]</t>
+  </si>
+  <si>
+    <t>[614.5, 653.0]</t>
+  </si>
+  <si>
+    <t>[[448.0, 274.0], [264.0, 324.0], [632.0, 224.0]]</t>
+  </si>
+  <si>
+    <t>[[743.0, 484.0], [779.5, 329.0], [706.5, 639.0]]</t>
+  </si>
+  <si>
+    <t>[[612.0, 826.5], [641.0, 810.25], [583.0, 842.75]]</t>
+  </si>
+  <si>
+    <t>[[502.0, 841.0], [528.0, 850.0], [476.0, 832.0]]</t>
+  </si>
+  <si>
+    <t>[[614.5, 653.0], [532.25, 738.0], [696.75, 568.0]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -1446,4 +1450,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>net_idx</t>
   </si>
@@ -118,22 +119,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[786, 154]</t>
-  </si>
-  <si>
-    <t>[640, 774]</t>
-  </si>
-  <si>
-    <t>[524, 839]</t>
-  </si>
-  <si>
-    <t>[420, 803]</t>
-  </si>
-  <si>
-    <t>[50, 354]</t>
-  </si>
-  <si>
-    <t>[749, 463]</t>
+    <t>[406, 342]</t>
+  </si>
+  <si>
+    <t>[252, 200]</t>
+  </si>
+  <si>
+    <t>[837, 237]</t>
+  </si>
+  <si>
+    <t>[717, 80]</t>
+  </si>
+  <si>
+    <t>[402, 471]</t>
+  </si>
+  <si>
+    <t>[393, 329]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -235,34 +236,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[448.0, 274.0]</t>
-  </si>
-  <si>
-    <t>[743.0, 484.0]</t>
-  </si>
-  <si>
-    <t>[612.0, 826.5]</t>
-  </si>
-  <si>
-    <t>[502.0, 841.0]</t>
-  </si>
-  <si>
-    <t>[614.5, 653.0]</t>
-  </si>
-  <si>
-    <t>[[448.0, 274.0], [264.0, 324.0], [632.0, 224.0]]</t>
-  </si>
-  <si>
-    <t>[[743.0, 484.0], [779.5, 329.0], [706.5, 639.0]]</t>
-  </si>
-  <si>
-    <t>[[612.0, 826.5], [641.0, 810.25], [583.0, 842.75]]</t>
-  </si>
-  <si>
-    <t>[[502.0, 841.0], [528.0, 850.0], [476.0, 832.0]]</t>
-  </si>
-  <si>
-    <t>[[614.5, 653.0], [532.25, 738.0], [696.75, 568.0]]</t>
+    <t>[434.0, 426.5]</t>
+  </si>
+  <si>
+    <t>[359.0, 291.0]</t>
+  </si>
+  <si>
+    <t>[574.5, 238.5]</t>
+  </si>
+  <si>
+    <t>[807.0, 178.5]</t>
+  </si>
+  <si>
+    <t>[585.0, 224.5]</t>
+  </si>
+  <si>
+    <t>[[434.0, 426.5], [433.0, 458.75], [435.0, 394.25]]</t>
+  </si>
+  <si>
+    <t>[[359.0, 291.0], [397.5, 326.5], [320.5, 255.5]]</t>
+  </si>
+  <si>
+    <t>[[574.5, 238.5], [428.25, 229.25], [720.75, 247.75]]</t>
+  </si>
+  <si>
+    <t>[[807.0, 178.5], [837.0, 217.75], [777.0, 139.25]]</t>
+  </si>
+  <si>
+    <t>[[585.0, 224.5], [666.0, 162.25], [504.0, 286.75]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -1483,4 +1484,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AC93A-7D7C-4724-8360-A1F90C66463D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>net_idx</t>
   </si>
@@ -270,13 +276,16 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +348,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +434,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,6 +486,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -694,14 +747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -828,7 +881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -890,7 +943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -952,7 +1005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1014,7 +1067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1076,7 +1129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1144,14 +1197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1229,7 @@
         <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>48</v>
@@ -1197,8 +1252,11 @@
       <c r="P1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1247,8 +1305,11 @@
       <c r="P2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="P3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1347,8 +1411,11 @@
       <c r="P4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1397,8 +1464,11 @@
       <c r="P5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1446,6 +1516,9 @@
       </c>
       <c r="P6" t="b">
         <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1454,14 +1527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1487,14 +1560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="309">
   <si>
     <t>net_idx</t>
   </si>
@@ -53,18 +53,102 @@
     <t>txt_content</t>
   </si>
   <si>
-    <t>compartment</t>
+    <t>comp_0</t>
+  </si>
+  <si>
+    <t>comp_1</t>
+  </si>
+  <si>
+    <t>comp_2</t>
+  </si>
+  <si>
+    <t>comp_3</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>[7920.0, 5510.0]</t>
+  </si>
+  <si>
+    <t>[6338.0, 4680.0]</t>
+  </si>
+  <si>
+    <t>[4419.0, 926.0]</t>
+  </si>
+  <si>
+    <t>[6478.0, 4986.0]</t>
   </si>
   <si>
     <t>[0, 0]</t>
   </si>
   <si>
+    <t>[1340.0, 740.0]</t>
+  </si>
+  <si>
+    <t>[5630.0, 1926.0]</t>
+  </si>
+  <si>
+    <t>[15574.0, 8700.0]</t>
+  </si>
+  <si>
+    <t>[5072.0, 1384.0]</t>
+  </si>
+  <si>
     <t>[1000, 1000]</t>
   </si>
   <si>
+    <t>[175, 126, 82, 197]</t>
+  </si>
+  <si>
+    <t>[206, 165, 113, 255]</t>
+  </si>
+  <si>
+    <t>[255, 230, 195, 255]</t>
+  </si>
+  <si>
+    <t>[175, 126, 82, 195]</t>
+  </si>
+  <si>
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[8575.0, 6213.5]</t>
+  </si>
+  <si>
+    <t>[9079.0, 6569.5]</t>
+  </si>
+  <si>
+    <t>[9509.0, 9588.5]</t>
+  </si>
+  <si>
+    <t>[9059.5, 6333.5]</t>
+  </si>
+  <si>
+    <t>[685.0, 36.5]</t>
+  </si>
+  <si>
+    <t>[2889.0, 36.5]</t>
+  </si>
+  <si>
+    <t>[10484.0, 37.5]</t>
+  </si>
+  <si>
+    <t>[2490.5, 36.5]</t>
+  </si>
+  <si>
+    <t>nucleoid</t>
+  </si>
+  <si>
+    <t>mitochondrion</t>
+  </si>
+  <si>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>mitochondrial matrix</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -98,181 +182,769 @@
     <t>shape_info</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>X0</t>
-  </si>
-  <si>
-    <t>X1</t>
+    <t>species_1</t>
+  </si>
+  <si>
+    <t>species_7</t>
+  </si>
+  <si>
+    <t>species_44</t>
+  </si>
+  <si>
+    <t>species_24</t>
+  </si>
+  <si>
+    <t>species_28</t>
+  </si>
+  <si>
+    <t>species_27</t>
+  </si>
+  <si>
+    <t>species_45</t>
+  </si>
+  <si>
+    <t>species_38</t>
+  </si>
+  <si>
+    <t>species_47</t>
+  </si>
+  <si>
+    <t>species_36</t>
+  </si>
+  <si>
+    <t>species_42</t>
+  </si>
+  <si>
+    <t>species_30</t>
+  </si>
+  <si>
+    <t>species_49</t>
+  </si>
+  <si>
+    <t>species_48</t>
+  </si>
+  <si>
+    <t>species_0</t>
+  </si>
+  <si>
+    <t>species_2</t>
+  </si>
+  <si>
+    <t>species_3</t>
+  </si>
+  <si>
+    <t>species_4</t>
+  </si>
+  <si>
+    <t>species_5</t>
+  </si>
+  <si>
+    <t>species_6</t>
+  </si>
+  <si>
+    <t>species_8</t>
+  </si>
+  <si>
+    <t>species_9</t>
+  </si>
+  <si>
+    <t>species_10</t>
+  </si>
+  <si>
+    <t>species_11</t>
+  </si>
+  <si>
+    <t>species_12</t>
+  </si>
+  <si>
+    <t>species_13</t>
+  </si>
+  <si>
+    <t>species_14</t>
+  </si>
+  <si>
+    <t>species_15</t>
+  </si>
+  <si>
+    <t>species_16</t>
+  </si>
+  <si>
+    <t>species_17</t>
+  </si>
+  <si>
+    <t>species_18</t>
+  </si>
+  <si>
+    <t>species_19</t>
+  </si>
+  <si>
+    <t>species_20</t>
+  </si>
+  <si>
+    <t>species_21</t>
+  </si>
+  <si>
+    <t>species_22</t>
+  </si>
+  <si>
+    <t>species_23</t>
+  </si>
+  <si>
+    <t>species_25</t>
+  </si>
+  <si>
+    <t>species_26</t>
+  </si>
+  <si>
+    <t>species_29</t>
+  </si>
+  <si>
+    <t>species_31</t>
+  </si>
+  <si>
+    <t>species_32</t>
+  </si>
+  <si>
+    <t>species_33</t>
+  </si>
+  <si>
+    <t>species_34</t>
+  </si>
+  <si>
+    <t>species_35</t>
+  </si>
+  <si>
+    <t>species_37</t>
+  </si>
+  <si>
+    <t>species_39</t>
+  </si>
+  <si>
+    <t>species_40</t>
+  </si>
+  <si>
+    <t>species_41</t>
+  </si>
+  <si>
+    <t>species_43</t>
+  </si>
+  <si>
+    <t>species_46</t>
+  </si>
+  <si>
+    <t>species_50</t>
+  </si>
+  <si>
+    <t>species_51</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>[332, 818]</t>
-  </si>
-  <si>
-    <t>[791, 265]</t>
-  </si>
-  <si>
-    <t>[594, 817]</t>
-  </si>
-  <si>
-    <t>[153, 278]</t>
-  </si>
-  <si>
-    <t>[216, 549]</t>
-  </si>
-  <si>
-    <t>[315, 685]</t>
-  </si>
-  <si>
-    <t>[60, 40]</t>
-  </si>
-  <si>
-    <t>[255, 204, 153, 200]</t>
-  </si>
-  <si>
-    <t>[255, 108, 9, 255]</t>
+    <t>[9077.0, 5914.0]</t>
+  </si>
+  <si>
+    <t>[8517.5, 5912.5]</t>
+  </si>
+  <si>
+    <t>[8925.0, 6045.0]</t>
+  </si>
+  <si>
+    <t>[8751.0, 6090.0]</t>
+  </si>
+  <si>
+    <t>[8888.428571428569, 5691.0]</t>
+  </si>
+  <si>
+    <t>[8281.75, 6074.75]</t>
+  </si>
+  <si>
+    <t>[8126.526785714283, 5994.973214285714]</t>
+  </si>
+  <si>
+    <t>[9078.0, 5634.0]</t>
+  </si>
+  <si>
+    <t>[8227.52678571429, 5914.044642857143]</t>
+  </si>
+  <si>
+    <t>[8400.0, 5992.5]</t>
+  </si>
+  <si>
+    <t>[8002.375, 5582.125]</t>
+  </si>
+  <si>
+    <t>[8345.0, 5555.0]</t>
+  </si>
+  <si>
+    <t>[8576.5, 5558.75]</t>
+  </si>
+  <si>
+    <t>[8716.5, 5772.0]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5629.625]</t>
+  </si>
+  <si>
+    <t>[8671.5, 5569.375]</t>
+  </si>
+  <si>
+    <t>[8445.0, 5615.0]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5659.625]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5719.625]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5749.625]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5599.625]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5689.625]</t>
+  </si>
+  <si>
+    <t>[8584.0, 5614.125]</t>
+  </si>
+  <si>
+    <t>[8991.571428571431, 5791.0]</t>
+  </si>
+  <si>
+    <t>[8405.0, 5663.0]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5629.625]</t>
+  </si>
+  <si>
+    <t>[8291.75, 6135.25]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5659.625]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5689.625]</t>
+  </si>
+  <si>
+    <t>[8355.0, 5565.0]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5629.625]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5599.625]</t>
+  </si>
+  <si>
+    <t>[8583.5, 5568.75]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5749.625]</t>
+  </si>
+  <si>
+    <t>[8381.75, 6135.25]</t>
+  </si>
+  <si>
+    <t>[8341.75, 6085.25]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5719.625]</t>
+  </si>
+  <si>
+    <t>[8941.571428571431, 5701.0]</t>
+  </si>
+  <si>
+    <t>[8975.0, 6055.0]</t>
+  </si>
+  <si>
+    <t>[8935.0, 6105.0]</t>
+  </si>
+  <si>
+    <t>[8445.0, 5565.0]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5749.625]</t>
+  </si>
+  <si>
+    <t>[8098.375, 5689.625]</t>
+  </si>
+  <si>
+    <t>[8671.5, 5613.75]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5599.625]</t>
+  </si>
+  <si>
+    <t>[8015.125, 5719.625]</t>
+  </si>
+  <si>
+    <t>[8899.142857142851, 5749.4464285714275]</t>
+  </si>
+  <si>
+    <t>[8899.142857142851, 5793.3214285714275]</t>
+  </si>
+  <si>
+    <t>[8355.0, 5615.0]</t>
+  </si>
+  <si>
+    <t>[8991.571428571431, 5747.125]</t>
+  </si>
+  <si>
+    <t>[8181.625, 5659.625]</t>
+  </si>
+  <si>
+    <t>[9025.0, 6105.0]</t>
+  </si>
+  <si>
+    <t>[106.0, 30.0]</t>
+  </si>
+  <si>
+    <t>[145.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[190.0, 130.0]</t>
+  </si>
+  <si>
+    <t>[80.0, 40.0]</t>
+  </si>
+  <si>
+    <t>[191.57142857143117, 169.0]</t>
+  </si>
+  <si>
+    <t>[196.5, 130.5]</t>
+  </si>
+  <si>
+    <t>[180.0, 35.0]</t>
+  </si>
+  <si>
+    <t>[104.0, 32.0]</t>
+  </si>
+  <si>
+    <t>[90.0, 25.0]</t>
+  </si>
+  <si>
+    <t>[275.25, 215.75]</t>
+  </si>
+  <si>
+    <t>[190.0, 170.0]</t>
+  </si>
+  <si>
+    <t>[187.0, 122.5]</t>
+  </si>
+  <si>
+    <t>[147.0, 36.0]</t>
+  </si>
+  <si>
+    <t>[204, 153, 255, 255]</t>
+  </si>
+  <si>
+    <t>[247, 247, 247, 255]</t>
+  </si>
+  <si>
+    <t>[204, 255, 204, 255]</t>
+  </si>
+  <si>
+    <t>[102, 255, 102, 255]</t>
   </si>
   <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>text_only</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>[[0.0, 50.0], [14.150943396226415, 0.0], [85.84905660377359, 0.0], [100.0, 50.0], [85.84905660377359, 100.0], [14.150943396226415, 100.0]]</t>
+  </si>
+  <si>
+    <t>[[3.4482758620689653, 0.0], [96.55172413793103, 0.0], [100.0, 14.285714285714286], [100.0, 85.71428571428571], [96.55172413793103, 100.0], [3.4482758620689653, 100.0], [0.0, 85.71428571428571], [0.0, 14.285714285714286]]</t>
+  </si>
+  <si>
+    <t>[[2.6315789473684212, 0.0], [97.36842105263158, 0.0], [100.0, 3.8461538461538463], [100.0, 96.15384615384616], [97.36842105263158, 100.0], [2.6315789473684212, 100.0], [0.0, 96.15384615384616], [0.0, 3.8461538461538463]]</t>
+  </si>
+  <si>
+    <t>[[6.25, 0.0], [93.75, 0.0], [100.0, 12.5], [100.0, 87.5], [93.75, 100.0], [6.25, 100.0], [0.0, 87.5], [0.0, 12.5], [6.25, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[2.6099925428784134, 0.0], [97.61372110365267, 0.0], [100.22371364653108, 2.9585798816568047], [100.22371364653108, 97.0414201183432], [97.61372110365267, 100.0], [2.6099925428784134, 100.0], [0.0, 97.0414201183432], [0.0, 2.9585798816568047]]</t>
+  </si>
+  <si>
+    <t>[[2.544529262086514, 0.0], [97.70992366412214, 0.0], [100.25445292620866, 3.8314176245210727], [100.25445292620866, 96.55172413793103], [97.70992366412214, 100.38314176245211], [2.544529262086514, 100.38314176245211], [0.0, 96.55172413793103], [0.0, 3.8314176245210727]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 51.42857142857143], [10.0, 0.0], [90.55555555555556, 0.0], [100.0, 51.42857142857143], [90.55555555555556, 100.0], [10.0, 100.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 50.0], [15.384615384615385, 0.0], [84.61538461538461, 0.0], [100.0, 50.0], [84.61538461538461, 100.0], [15.384615384615385, 100.0]]</t>
+  </si>
+  <si>
+    <t>[[25.0, 0.0], [100.0, 0.0], [75.0, 100.0], [0.0, 100.0]]</t>
+  </si>
+  <si>
+    <t>[[1.8165304268846503, 0.0], [98.09264305177112, 0.0], [99.90917347865577, 2.317497103128621], [99.90917347865577, 97.7983777520278], [98.09264305177112, 100.11587485515643], [1.8165304268846503, 100.11587485515643], [0.0, 97.7983777520278], [0.0, 2.317497103128621]]</t>
+  </si>
+  <si>
+    <t>[[2.6315789473684212, 0.0], [97.36842105263158, 0.0], [100.0, 2.9411764705882355], [100.0, 97.05882352941177], [97.36842105263158, 100.0], [2.6315789473684212, 100.0], [0.0, 97.05882352941177], [0.0, 2.9411764705882355]]</t>
+  </si>
+  <si>
+    <t>[[2.6737967914438503, 0.0], [97.32620320855615, 0.0], [100.0, 4.081632653061225], [100.0, 96.3265306122449], [97.32620320855615, 100.40816326530613], [2.6737967914438503, 100.40816326530613], [0.0, 96.3265306122449], [0.0, 4.081632653061225]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 50.0], [12.244897959183673, 0.0], [87.75510204081633, 0.0], [100.0, 50.0], [87.75510204081633, 100.0], [12.244897959183673, 100.0]]</t>
+  </si>
+  <si>
+    <t>mtDNA repair</t>
+  </si>
+  <si>
+    <t>mitochondrial DNA</t>
+  </si>
+  <si>
+    <t>Mt-DNA repair</t>
+  </si>
+  <si>
+    <t>TFAM</t>
+  </si>
+  <si>
+    <t>Mt-dNTP pool</t>
+  </si>
+  <si>
+    <t>Mt ribosomal proteins</t>
+  </si>
+  <si>
+    <t>mitochondrial translation</t>
+  </si>
+  <si>
+    <t>mtDNA damage</t>
+  </si>
+  <si>
+    <t>mRNA</t>
+  </si>
+  <si>
+    <t>mitochondrial transcription</t>
+  </si>
+  <si>
+    <t>mitochondrial tRNAs and rRNA</t>
+  </si>
+  <si>
+    <t>Mt tRNA synthetases</t>
+  </si>
+  <si>
+    <t>Mt replication</t>
+  </si>
+  <si>
+    <t>mtDNA replication</t>
+  </si>
+  <si>
+    <t>MT-TL2</t>
+  </si>
+  <si>
+    <t>POLG</t>
+  </si>
+  <si>
+    <t>KARS</t>
+  </si>
+  <si>
+    <t>MT-TF</t>
+  </si>
+  <si>
+    <t>MT-TQ</t>
+  </si>
+  <si>
+    <t>MT-TR</t>
+  </si>
+  <si>
+    <t>MT-TC</t>
+  </si>
+  <si>
+    <t>MT-TH</t>
+  </si>
+  <si>
+    <t>MTFMT</t>
+  </si>
+  <si>
+    <t>SUCLG1</t>
+  </si>
+  <si>
+    <t>RARS2</t>
+  </si>
+  <si>
+    <t>MT-TS2</t>
+  </si>
+  <si>
+    <t>MRPS16</t>
+  </si>
+  <si>
+    <t>MT-TN</t>
+  </si>
+  <si>
+    <t>MT-TV</t>
+  </si>
+  <si>
+    <t>AARS2</t>
+  </si>
+  <si>
+    <t>MT-TE</t>
+  </si>
+  <si>
+    <t>MT-TL1</t>
+  </si>
+  <si>
+    <t>POLG2</t>
+  </si>
+  <si>
+    <t>MT-TK</t>
+  </si>
+  <si>
+    <t>MRPS22</t>
+  </si>
+  <si>
+    <t>MRPL3</t>
+  </si>
+  <si>
+    <t>MT-TW</t>
+  </si>
+  <si>
+    <t>SUCLA2</t>
+  </si>
+  <si>
+    <t>ERCC6</t>
+  </si>
+  <si>
+    <t>DARS2</t>
+  </si>
+  <si>
+    <t>MT-RNR1</t>
+  </si>
+  <si>
+    <t>MT-TP</t>
+  </si>
+  <si>
+    <t>MTPAP</t>
+  </si>
+  <si>
+    <t>MT-TS1</t>
+  </si>
+  <si>
+    <t>MT-TI</t>
+  </si>
+  <si>
+    <t>DGUOK</t>
+  </si>
+  <si>
+    <t>TK2</t>
+  </si>
+  <si>
+    <t>GARS</t>
+  </si>
+  <si>
+    <t>RRM2B</t>
+  </si>
+  <si>
+    <t>MT-TT</t>
+  </si>
+  <si>
+    <t>ERCC8</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>rate_law</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>center_pos</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>path_0_re6338</t>
+  </si>
+  <si>
+    <t>path_0_re6337</t>
+  </si>
+  <si>
+    <t>path_0_re6340</t>
+  </si>
+  <si>
+    <t>path_0_re6342</t>
+  </si>
+  <si>
+    <t>path_0_re6339</t>
+  </si>
+  <si>
+    <t>path_0_re6348</t>
+  </si>
+  <si>
+    <t>path_0_re6344</t>
+  </si>
+  <si>
+    <t>path_0_re6350</t>
+  </si>
+  <si>
+    <t>path_0_re6347</t>
+  </si>
+  <si>
+    <t>path_0_re6336</t>
+  </si>
+  <si>
+    <t>path_0_re6341</t>
+  </si>
+  <si>
+    <t>path_0_re6346</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[2, 3, 4]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>rate_law</t>
-  </si>
-  <si>
-    <t>modifiers</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>line_thickness</t>
-  </si>
-  <si>
-    <t>center_pos</t>
-  </si>
-  <si>
-    <t>handles</t>
-  </si>
-  <si>
-    <t>bezier</t>
-  </si>
-  <si>
-    <t>arrow_head_size</t>
-  </si>
-  <si>
-    <t>rxn_dash</t>
-  </si>
-  <si>
-    <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>J0</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>J0_VM1 * (X0 - S1 / J0_Keq1) / (1 + X0 + S1 + pow(S4, J0_h))</t>
-  </si>
-  <si>
-    <t>(10 * S1 - 2 * S2) / (1 + S1 + S2)</t>
-  </si>
-  <si>
-    <t>(10 * S2 - 2 * S3) / (1 + S2 + S3)</t>
-  </si>
-  <si>
-    <t>(10 * S3 - 2 * S4) / (1 + S3 + S4)</t>
-  </si>
-  <si>
-    <t>J4_V4 * S4 / (J4_KS4 + S4)</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
-  </si>
-  <si>
-    <t>[304.0, 703.5]</t>
-  </si>
-  <si>
-    <t>[591.5, 561.5]</t>
-  </si>
-  <si>
-    <t>[722.5, 561.0]</t>
-  </si>
-  <si>
-    <t>[403.5, 567.5]</t>
-  </si>
-  <si>
-    <t>[264.0, 501.5]</t>
-  </si>
-  <si>
-    <t>[[304.0, 703.5], [275.0, 636.25], [333.0, 770.75]]</t>
-  </si>
-  <si>
-    <t>[[591.5, 561.5], [476.75, 699.75], [706.25, 423.25]]</t>
-  </si>
-  <si>
-    <t>[[722.5, 561.0], [771.75, 423.0], [673.25, 699.0]]</t>
-  </si>
-  <si>
-    <t>[[403.5, 567.5], [513.75, 702.25], [293.25, 432.75]]</t>
-  </si>
-  <si>
-    <t>[[264.0, 501.5], [223.5, 399.75], [304.5, 603.25]]</t>
-  </si>
-  <si>
-    <t>[12.0, 15.0]</t>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[8869.75, 5929.5]</t>
+  </si>
+  <si>
+    <t>[8289.766957850301, 6052.361572265625]</t>
+  </si>
+  <si>
+    <t>[9130.0, 5790.0]</t>
+  </si>
+  <si>
+    <t>[8411.888392857145, 5928.272321428572]</t>
+  </si>
+  <si>
+    <t>[8397.5625, 5841.808360927149]</t>
+  </si>
+  <si>
+    <t>[8689.104166666704, 6018.75]</t>
+  </si>
+  <si>
+    <t>[8702.25, 5726.625]</t>
+  </si>
+  <si>
+    <t>[8688.47899590165, 5860.25]</t>
+  </si>
+  <si>
+    <t>[8845.455291598133, 5722.076721825416]</t>
+  </si>
+  <si>
+    <t>[8661.69372990354, 6056.306270096459]</t>
+  </si>
+  <si>
+    <t>[8789.962075599095, 5711.0896818824585]</t>
+  </si>
+  <si>
+    <t>[8790.5, 5949.0]</t>
+  </si>
+  <si>
+    <t>[[8869.75, 5929.5], [8869.75, 5929.5], [8869.75, 5929.5]]</t>
+  </si>
+  <si>
+    <t>[[8289.766957850301, 6052.361572265625], [8289.766957850301, 6052.361572265625], [8289.766957850301, 6052.361572265625]]</t>
+  </si>
+  <si>
+    <t>[[9130.0, 5790.0], [9130.0, 5790.0], [9130.0, 5790.0]]</t>
+  </si>
+  <si>
+    <t>[[8411.888392857145, 5928.272321428572], [8411.888392857145, 5928.272321428572], [8411.888392857145, 5928.272321428572]]</t>
+  </si>
+  <si>
+    <t>[[8397.5625, 5841.808360927149], [8397.5625, 5841.808360927149], [8397.5625, 5841.808360927149]]</t>
+  </si>
+  <si>
+    <t>[[8689.104166666704, 6018.75], [8689.104166666704, 6018.75], [8689.104166666704, 6018.75]]</t>
+  </si>
+  <si>
+    <t>[[8702.25, 5726.625], [8702.25, 5726.625], [8702.25, 5726.625]]</t>
+  </si>
+  <si>
+    <t>[[8688.47899590165, 5860.25], [8688.47899590165, 5860.25], [8688.47899590165, 5860.25]]</t>
+  </si>
+  <si>
+    <t>[[8845.455291598133, 5722.076721825416], [8845.455291598133, 5722.076721825416], [8845.455291598133, 5722.076721825416]]</t>
+  </si>
+  <si>
+    <t>[[8661.69372990354, 6056.306270096459], [8661.69372990354, 6056.306270096459], [8661.69372990354, 6056.306270096459]]</t>
+  </si>
+  <si>
+    <t>[[8789.962075599095, 5711.0896818824585], [8789.962075599095, 5711.0896818824585], [8789.962075599095, 5711.0896818824585]]</t>
+  </si>
+  <si>
+    <t>[[8790.5, 5949.0], [8790.5, 5949.0], [8790.5, 5949.0]]</t>
+  </si>
+  <si>
+    <t>[12.0, 12.0]</t>
+  </si>
+  <si>
+    <t>[11, 3, 1, 3, 1, 3]</t>
   </si>
 </sst>
 </file>
@@ -630,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,24 +1357,176 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
@@ -713,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -724,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -748,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -766,22 +1590,22 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -804,49 +1628,52 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>12</v>
+      <c r="T2" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2" t="s">
+        <v>179</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>180</v>
+      </c>
+      <c r="W2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -866,49 +1693,52 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>12</v>
+      <c r="T3" t="s">
+        <v>178</v>
+      </c>
+      <c r="U3" t="s">
+        <v>179</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>181</v>
+      </c>
+      <c r="W3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -928,49 +1758,52 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>12</v>
+      <c r="T4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U4" t="s">
+        <v>179</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>182</v>
+      </c>
+      <c r="W4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -990,49 +1823,52 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>12</v>
+      <c r="T5" t="s">
+        <v>178</v>
+      </c>
+      <c r="U5" t="s">
+        <v>179</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>183</v>
+      </c>
+      <c r="W5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1052,49 +1888,52 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>12</v>
+      <c r="T6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U6" t="s">
+        <v>179</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>184</v>
+      </c>
+      <c r="W6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1114,49 +1953,3042 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>178</v>
+      </c>
+      <c r="U7" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" t="s">
+        <v>185</v>
+      </c>
+      <c r="W7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>177</v>
+      </c>
+      <c r="U9" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>178</v>
+      </c>
+      <c r="U10" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>176</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>177</v>
+      </c>
+      <c r="U11" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" t="s">
+        <v>186</v>
+      </c>
+      <c r="W11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" t="s">
+        <v>173</v>
+      </c>
+      <c r="O12" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>176</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U12" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" t="s">
+        <v>189</v>
+      </c>
+      <c r="W12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>169</v>
+      </c>
+      <c r="N13" t="s">
+        <v>173</v>
+      </c>
+      <c r="O13" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>176</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U13" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" t="s">
+        <v>190</v>
+      </c>
+      <c r="W13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>176</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>178</v>
+      </c>
+      <c r="U14" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" t="s">
+        <v>191</v>
+      </c>
+      <c r="W14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>176</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" t="s">
+        <v>192</v>
+      </c>
+      <c r="W15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>176</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>178</v>
+      </c>
+      <c r="U16" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" t="s">
+        <v>188</v>
+      </c>
+      <c r="W16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>176</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>178</v>
+      </c>
+      <c r="U17" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" t="s">
+        <v>183</v>
+      </c>
+      <c r="W17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>178</v>
+      </c>
+      <c r="U18" t="s">
+        <v>179</v>
+      </c>
+      <c r="V18" t="s">
+        <v>183</v>
+      </c>
+      <c r="W18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>176</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>176</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>178</v>
+      </c>
+      <c r="U19" t="s">
+        <v>179</v>
+      </c>
+      <c r="V19" t="s">
+        <v>188</v>
+      </c>
+      <c r="W19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>178</v>
+      </c>
+      <c r="U20" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" t="s">
+        <v>188</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V21" t="s">
+        <v>188</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>176</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>178</v>
+      </c>
+      <c r="U22" t="s">
+        <v>179</v>
+      </c>
+      <c r="V22" t="s">
+        <v>188</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>176</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>178</v>
+      </c>
+      <c r="U23" t="s">
+        <v>179</v>
+      </c>
+      <c r="V23" t="s">
+        <v>188</v>
+      </c>
+      <c r="W23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>176</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>178</v>
+      </c>
+      <c r="U24" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" t="s">
+        <v>183</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>176</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>178</v>
+      </c>
+      <c r="U25" t="s">
+        <v>179</v>
+      </c>
+      <c r="V25" t="s">
+        <v>183</v>
+      </c>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>176</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>178</v>
+      </c>
+      <c r="U26" t="s">
+        <v>179</v>
+      </c>
+      <c r="V26" t="s">
+        <v>183</v>
+      </c>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>176</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>176</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>178</v>
+      </c>
+      <c r="U27" t="s">
+        <v>179</v>
+      </c>
+      <c r="V27" t="s">
+        <v>188</v>
+      </c>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>176</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>178</v>
+      </c>
+      <c r="U28" t="s">
+        <v>179</v>
+      </c>
+      <c r="V28" t="s">
+        <v>183</v>
+      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>176</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>178</v>
+      </c>
+      <c r="U29" t="s">
+        <v>179</v>
+      </c>
+      <c r="V29" t="s">
+        <v>188</v>
+      </c>
+      <c r="W29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" t="s">
+        <v>175</v>
+      </c>
+      <c r="O30" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>176</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>178</v>
+      </c>
+      <c r="U30" t="s">
+        <v>179</v>
+      </c>
+      <c r="V30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" t="s">
+        <v>162</v>
+      </c>
+      <c r="N31" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31" t="s">
+        <v>176</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>176</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>178</v>
+      </c>
+      <c r="U31" t="s">
+        <v>179</v>
+      </c>
+      <c r="V31" t="s">
+        <v>183</v>
+      </c>
+      <c r="W31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" t="s">
+        <v>175</v>
+      </c>
+      <c r="O32" t="s">
+        <v>176</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>176</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>178</v>
+      </c>
+      <c r="U32" t="s">
+        <v>179</v>
+      </c>
+      <c r="V32" t="s">
+        <v>188</v>
+      </c>
+      <c r="W32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" t="s">
+        <v>176</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>176</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>178</v>
+      </c>
+      <c r="U33" t="s">
+        <v>179</v>
+      </c>
+      <c r="V33" t="s">
+        <v>188</v>
+      </c>
+      <c r="W33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M34" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>176</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>178</v>
+      </c>
+      <c r="U34" t="s">
+        <v>179</v>
+      </c>
+      <c r="V34" t="s">
+        <v>183</v>
+      </c>
+      <c r="W34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" t="s">
+        <v>175</v>
+      </c>
+      <c r="O35" t="s">
+        <v>176</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>176</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>178</v>
+      </c>
+      <c r="U35" t="s">
+        <v>179</v>
+      </c>
+      <c r="V35" t="s">
+        <v>188</v>
+      </c>
+      <c r="W35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" t="s">
+        <v>141</v>
+      </c>
+      <c r="J36" t="s">
+        <v>162</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" t="s">
+        <v>162</v>
+      </c>
+      <c r="N36" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" t="s">
+        <v>176</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>176</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>178</v>
+      </c>
+      <c r="U36" t="s">
+        <v>179</v>
+      </c>
+      <c r="V36" t="s">
+        <v>183</v>
+      </c>
+      <c r="W36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" t="s">
+        <v>174</v>
+      </c>
+      <c r="O37" t="s">
+        <v>176</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>176</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>178</v>
+      </c>
+      <c r="U37" t="s">
+        <v>179</v>
+      </c>
+      <c r="V37" t="s">
+        <v>183</v>
+      </c>
+      <c r="W37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>176</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>178</v>
+      </c>
+      <c r="U38" t="s">
+        <v>179</v>
+      </c>
+      <c r="V38" t="s">
+        <v>188</v>
+      </c>
+      <c r="W38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" t="s">
+        <v>162</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>176</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>178</v>
+      </c>
+      <c r="U39" t="s">
+        <v>179</v>
+      </c>
+      <c r="V39" t="s">
+        <v>183</v>
+      </c>
+      <c r="W39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>145</v>
+      </c>
+      <c r="M40" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" t="s">
+        <v>176</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>176</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>178</v>
+      </c>
+      <c r="U40" t="s">
+        <v>179</v>
+      </c>
+      <c r="V40" t="s">
+        <v>183</v>
+      </c>
+      <c r="W40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M41" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" t="s">
+        <v>174</v>
+      </c>
+      <c r="O41" t="s">
+        <v>176</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>176</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>178</v>
+      </c>
+      <c r="U41" t="s">
+        <v>179</v>
+      </c>
+      <c r="V41" t="s">
+        <v>183</v>
+      </c>
+      <c r="W41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" t="s">
+        <v>176</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>176</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>178</v>
+      </c>
+      <c r="U42" t="s">
+        <v>179</v>
+      </c>
+      <c r="V42" t="s">
+        <v>183</v>
+      </c>
+      <c r="W42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
+        <v>167</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>148</v>
+      </c>
+      <c r="M43" t="s">
+        <v>167</v>
+      </c>
+      <c r="N43" t="s">
+        <v>175</v>
+      </c>
+      <c r="O43" t="s">
+        <v>176</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>178</v>
+      </c>
+      <c r="U43" t="s">
+        <v>179</v>
+      </c>
+      <c r="V43" t="s">
+        <v>188</v>
+      </c>
+      <c r="W43" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" t="s">
+        <v>167</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" t="s">
+        <v>167</v>
+      </c>
+      <c r="N44" t="s">
+        <v>175</v>
+      </c>
+      <c r="O44" t="s">
+        <v>176</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>176</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>178</v>
+      </c>
+      <c r="U44" t="s">
+        <v>179</v>
+      </c>
+      <c r="V44" t="s">
+        <v>188</v>
+      </c>
+      <c r="W44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>12</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" t="s">
+        <v>162</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>150</v>
+      </c>
+      <c r="M45" t="s">
+        <v>162</v>
+      </c>
+      <c r="N45" t="s">
+        <v>174</v>
+      </c>
+      <c r="O45" t="s">
+        <v>176</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>176</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>178</v>
+      </c>
+      <c r="U45" t="s">
+        <v>179</v>
+      </c>
+      <c r="V45" t="s">
+        <v>183</v>
+      </c>
+      <c r="W45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1">
         <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" t="s">
+        <v>151</v>
+      </c>
+      <c r="J46" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>176</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>178</v>
+      </c>
+      <c r="U46" t="s">
+        <v>179</v>
+      </c>
+      <c r="V46" t="s">
+        <v>188</v>
+      </c>
+      <c r="W46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" t="s">
+        <v>167</v>
+      </c>
+      <c r="N47" t="s">
+        <v>175</v>
+      </c>
+      <c r="O47" t="s">
+        <v>176</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>176</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
+        <v>178</v>
+      </c>
+      <c r="U47" t="s">
+        <v>179</v>
+      </c>
+      <c r="V47" t="s">
+        <v>188</v>
+      </c>
+      <c r="W47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" t="s">
+        <v>162</v>
+      </c>
+      <c r="N48" t="s">
+        <v>174</v>
+      </c>
+      <c r="O48" t="s">
+        <v>176</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>176</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
+        <v>178</v>
+      </c>
+      <c r="U48" t="s">
+        <v>179</v>
+      </c>
+      <c r="V48" t="s">
+        <v>183</v>
+      </c>
+      <c r="W48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" t="s">
+        <v>162</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>154</v>
+      </c>
+      <c r="M49" t="s">
+        <v>162</v>
+      </c>
+      <c r="N49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O49" t="s">
+        <v>176</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>176</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>178</v>
+      </c>
+      <c r="U49" t="s">
+        <v>179</v>
+      </c>
+      <c r="V49" t="s">
+        <v>183</v>
+      </c>
+      <c r="W49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" t="s">
+        <v>162</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>155</v>
+      </c>
+      <c r="M50" t="s">
+        <v>162</v>
+      </c>
+      <c r="N50" t="s">
+        <v>174</v>
+      </c>
+      <c r="O50" t="s">
+        <v>176</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>176</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>178</v>
+      </c>
+      <c r="U50" t="s">
+        <v>179</v>
+      </c>
+      <c r="V50" t="s">
+        <v>183</v>
+      </c>
+      <c r="W50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" t="s">
+        <v>162</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>156</v>
+      </c>
+      <c r="M51" t="s">
+        <v>162</v>
+      </c>
+      <c r="N51" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>176</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>178</v>
+      </c>
+      <c r="U51" t="s">
+        <v>179</v>
+      </c>
+      <c r="V51" t="s">
+        <v>183</v>
+      </c>
+      <c r="W51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M52" t="s">
+        <v>167</v>
+      </c>
+      <c r="N52" t="s">
+        <v>175</v>
+      </c>
+      <c r="O52" t="s">
+        <v>176</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>176</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>178</v>
+      </c>
+      <c r="U52" t="s">
+        <v>179</v>
+      </c>
+      <c r="V52" t="s">
+        <v>188</v>
+      </c>
+      <c r="W52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>158</v>
+      </c>
+      <c r="M53" t="s">
+        <v>162</v>
+      </c>
+      <c r="N53" t="s">
+        <v>174</v>
+      </c>
+      <c r="O53" t="s">
+        <v>176</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>176</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
+        <v>178</v>
+      </c>
+      <c r="U53" t="s">
+        <v>179</v>
+      </c>
+      <c r="V53" t="s">
+        <v>183</v>
+      </c>
+      <c r="W53" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +4998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1183,40 +5015,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -1233,46 +5065,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1286,46 +5115,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1339,46 +5165,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1392,46 +5215,43 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1445,46 +5265,393 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>307</v>
+      </c>
+      <c r="O7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" t="s">
+        <v>281</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
+        <v>307</v>
+      </c>
+      <c r="O9" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" t="s">
+        <v>303</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O10" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>292</v>
+      </c>
+      <c r="L11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
+        <v>307</v>
+      </c>
+      <c r="O11" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" t="s">
+        <v>281</v>
+      </c>
+      <c r="I12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" t="s">
+        <v>305</v>
+      </c>
+      <c r="M12" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" t="s">
+        <v>307</v>
+      </c>
+      <c r="O12" t="s">
+        <v>281</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
+        <v>307</v>
+      </c>
+      <c r="O13" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1511,13 +5678,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1538,7 +5705,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1556,10 +5723,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -131,22 +131,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[630, 311]</t>
-  </si>
-  <si>
-    <t>[245, 60]</t>
-  </si>
-  <si>
-    <t>[99, 674]</t>
-  </si>
-  <si>
-    <t>[94, 776]</t>
-  </si>
-  <si>
-    <t>[618, 779]</t>
-  </si>
-  <si>
-    <t>[160, 546]</t>
+    <t>[755, 117]</t>
+  </si>
+  <si>
+    <t>[801, 368]</t>
+  </si>
+  <si>
+    <t>[191, 675]</t>
+  </si>
+  <si>
+    <t>[273, 424]</t>
+  </si>
+  <si>
+    <t>[300, 392]</t>
+  </si>
+  <si>
+    <t>[383, 185]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -248,34 +248,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[654.0, 565.0]</t>
-  </si>
-  <si>
-    <t>[467.5, 205.5]</t>
-  </si>
-  <si>
-    <t>[202.0, 387.0]</t>
-  </si>
-  <si>
-    <t>[126.5, 745.0]</t>
-  </si>
-  <si>
-    <t>[157.0, 681.0]</t>
-  </si>
-  <si>
-    <t>[[654.0, 565.0], [651.0, 682.0], [657.0, 448.0]]</t>
-  </si>
-  <si>
-    <t>[[467.5, 205.5], [563.75, 268.25], [371.25, 142.75]]</t>
-  </si>
-  <si>
-    <t>[[202.0, 387.0], [238.5, 233.5], [165.5, 540.5]]</t>
-  </si>
-  <si>
-    <t>[[126.5, 745.0], [127.75, 719.5], [125.25, 770.5]]</t>
-  </si>
-  <si>
-    <t>[[157.0, 681.0], [140.5, 738.5], [173.5, 623.5]]</t>
+    <t>[557.5, 274.5]</t>
+  </si>
+  <si>
+    <t>[808.0, 262.5]</t>
+  </si>
+  <si>
+    <t>[526.0, 541.5]</t>
+  </si>
+  <si>
+    <t>[262.0, 569.5]</t>
+  </si>
+  <si>
+    <t>[358.0, 324.5]</t>
+  </si>
+  <si>
+    <t>[[557.5, 274.5], [443.75, 343.25], [671.25, 205.75]]</t>
+  </si>
+  <si>
+    <t>[[808.0, 262.5], [796.5, 199.75], [819.5, 325.25]]</t>
+  </si>
+  <si>
+    <t>[[526.0, 541.5], [678.5, 464.75], [373.5, 618.25]]</t>
+  </si>
+  <si>
+    <t>[[262.0, 569.5], [241.5, 632.25], [282.5, 506.75]]</t>
+  </si>
+  <si>
+    <t>[[358.0, 324.5], [330.5, 384.25], [385.5, 264.75]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>net_idx</t>
   </si>
@@ -131,22 +132,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[755, 117]</t>
-  </si>
-  <si>
-    <t>[801, 368]</t>
-  </si>
-  <si>
-    <t>[191, 675]</t>
-  </si>
-  <si>
-    <t>[273, 424]</t>
-  </si>
-  <si>
-    <t>[300, 392]</t>
-  </si>
-  <si>
-    <t>[383, 185]</t>
+    <t>[148, 450]</t>
+  </si>
+  <si>
+    <t>[457, 71]</t>
+  </si>
+  <si>
+    <t>[370, 656]</t>
+  </si>
+  <si>
+    <t>[231, 682]</t>
+  </si>
+  <si>
+    <t>[507, 602]</t>
+  </si>
+  <si>
+    <t>[586, 389]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -197,6 +198,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -248,37 +258,43 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[557.5, 274.5]</t>
-  </si>
-  <si>
-    <t>[808.0, 262.5]</t>
-  </si>
-  <si>
-    <t>[526.0, 541.5]</t>
-  </si>
-  <si>
-    <t>[262.0, 569.5]</t>
-  </si>
-  <si>
-    <t>[358.0, 324.5]</t>
-  </si>
-  <si>
-    <t>[[557.5, 274.5], [443.75, 343.25], [671.25, 205.75]]</t>
-  </si>
-  <si>
-    <t>[[808.0, 262.5], [796.5, 199.75], [819.5, 325.25]]</t>
-  </si>
-  <si>
-    <t>[[526.0, 541.5], [678.5, 464.75], [373.5, 618.25]]</t>
-  </si>
-  <si>
-    <t>[[262.0, 569.5], [241.5, 632.25], [282.5, 506.75]]</t>
-  </si>
-  <si>
-    <t>[[358.0, 324.5], [330.5, 384.25], [385.5, 264.75]]</t>
-  </si>
-  <si>
-    <t>[12.0, 15.0]</t>
+    <t>[357.5, 546.0]</t>
+  </si>
+  <si>
+    <t>[332.5, 280.5]</t>
+  </si>
+  <si>
+    <t>[443.5, 383.5]</t>
+  </si>
+  <si>
+    <t>[330.5, 689.0]</t>
+  </si>
+  <si>
+    <t>[438.5, 555.5]</t>
+  </si>
+  <si>
+    <t>[[357.5, 546.0], [447.25, 584.0], [267.75, 508.0]]</t>
+  </si>
+  <si>
+    <t>[[332.5, 280.5], [255.25, 375.25], [409.75, 185.75]]</t>
+  </si>
+  <si>
+    <t>[[443.5, 383.5], [465.25, 237.25], [421.75, 529.75]]</t>
+  </si>
+  <si>
+    <t>[[330.5, 689.0], [365.25, 682.5], [295.75, 695.5]]</t>
+  </si>
+  <si>
+    <t>[[438.5, 555.5], [349.75, 628.75], [527.25, 482.25]]</t>
+  </si>
+  <si>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
   </si>
 </sst>
 </file>
@@ -881,6 +897,9 @@
       <c r="V2" t="s">
         <v>46</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -945,6 +964,9 @@
       </c>
       <c r="V3" t="s">
         <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -1011,6 +1033,9 @@
       <c r="V4" t="s">
         <v>46</v>
       </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
       <c r="X4" t="s">
         <v>20</v>
       </c>
@@ -1076,6 +1101,9 @@
       <c r="V5" t="s">
         <v>46</v>
       </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
       <c r="X5" t="s">
         <v>20</v>
       </c>
@@ -1141,6 +1169,9 @@
       <c r="V6" t="s">
         <v>46</v>
       </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
       <c r="X6" t="s">
         <v>20</v>
       </c>
@@ -1205,6 +1236,9 @@
       </c>
       <c r="V7" t="s">
         <v>46</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
       </c>
       <c r="X7" t="s">
         <v>20</v>
@@ -1217,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1306,17 @@
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1284,37 +1327,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1325,8 +1368,17 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
+      <c r="R2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1337,37 +1389,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1378,8 +1430,17 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1390,37 +1451,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1431,8 +1492,17 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1443,37 +1513,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1484,8 +1554,17 @@
       <c r="Q5" t="s">
         <v>18</v>
       </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1496,37 +1575,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -1536,6 +1615,15 @@
       </c>
       <c r="Q6" t="s">
         <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1619,4 +1707,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="114">
   <si>
     <t>net_idx</t>
   </si>
@@ -132,22 +132,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[148, 450]</t>
-  </si>
-  <si>
-    <t>[457, 71]</t>
-  </si>
-  <si>
-    <t>[370, 656]</t>
-  </si>
-  <si>
-    <t>[231, 682]</t>
-  </si>
-  <si>
-    <t>[507, 602]</t>
-  </si>
-  <si>
-    <t>[586, 389]</t>
+    <t>[361, 201]</t>
+  </si>
+  <si>
+    <t>[344, 433]</t>
+  </si>
+  <si>
+    <t>[300, 620]</t>
+  </si>
+  <si>
+    <t>[559, 520]</t>
+  </si>
+  <si>
+    <t>[531, 94]</t>
+  </si>
+  <si>
+    <t>[459, 510]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -207,6 +207,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -258,34 +267,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[357.5, 546.0]</t>
-  </si>
-  <si>
-    <t>[332.5, 280.5]</t>
-  </si>
-  <si>
-    <t>[443.5, 383.5]</t>
-  </si>
-  <si>
-    <t>[330.5, 689.0]</t>
-  </si>
-  <si>
-    <t>[438.5, 555.5]</t>
-  </si>
-  <si>
-    <t>[[357.5, 546.0], [447.25, 584.0], [267.75, 508.0]]</t>
-  </si>
-  <si>
-    <t>[[332.5, 280.5], [255.25, 375.25], [409.75, 185.75]]</t>
-  </si>
-  <si>
-    <t>[[443.5, 383.5], [465.25, 237.25], [421.75, 529.75]]</t>
-  </si>
-  <si>
-    <t>[[330.5, 689.0], [365.25, 682.5], [295.75, 695.5]]</t>
-  </si>
-  <si>
-    <t>[[438.5, 555.5], [349.75, 628.75], [527.25, 482.25]]</t>
+    <t>[476.0, 167.5]</t>
+  </si>
+  <si>
+    <t>[382.5, 337.0]</t>
+  </si>
+  <si>
+    <t>[352.0, 546.5]</t>
+  </si>
+  <si>
+    <t>[459.5, 590.0]</t>
+  </si>
+  <si>
+    <t>[539.0, 535.0]</t>
+  </si>
+  <si>
+    <t>[[476.0, 167.5], [518.5, 140.75], [433.5, 194.25]]</t>
+  </si>
+  <si>
+    <t>[[382.5, 337.0], [386.75, 279.0], [378.25, 395.0]]</t>
+  </si>
+  <si>
+    <t>[[352.0, 546.5], [363.0, 499.75], [341.0, 593.25]]</t>
+  </si>
+  <si>
+    <t>[[459.5, 590.0], [394.75, 615.0], [524.25, 565.0]]</t>
+  </si>
+  <si>
+    <t>[[539.0, 535.0], [564.0, 537.5], [514.0, 532.5]]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -294,7 +303,64 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_J0']</t>
+  </si>
+  <si>
+    <t>['line_ending_J1']</t>
+  </si>
+  <si>
+    <t>['line_ending_J2']</t>
+  </si>
+  <si>
+    <t>['line_ending_J3']</t>
+  </si>
+  <si>
+    <t>['line_ending_J4']</t>
+  </si>
+  <si>
+    <t>['line_ending_modifier_J0_3']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>line_ending_J0</t>
+  </si>
+  <si>
+    <t>line_ending_modifier_J0_3</t>
+  </si>
+  <si>
+    <t>line_ending_J1</t>
+  </si>
+  <si>
+    <t>line_ending_J2</t>
+  </si>
+  <si>
+    <t>line_ending_J3</t>
+  </si>
+  <si>
+    <t>line_ending_J4</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[-3.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 6.0]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>['ellipse']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+  </si>
+  <si>
+    <t>[[[0.0, 0.0], [100.0, 100.0]]]</t>
   </si>
 </sst>
 </file>
@@ -1251,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,8 +1381,17 @@
       <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1327,37 +1402,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1369,16 +1444,25 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>99</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1389,37 +1473,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1431,16 +1515,25 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1451,37 +1544,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1493,16 +1586,25 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1513,37 +1615,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1555,16 +1657,25 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1575,37 +1686,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -1617,12 +1728,21 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1711,13 +1831,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1735,6 +1855,167 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
   <si>
     <t>net_idx</t>
   </si>
@@ -132,22 +132,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[361, 201]</t>
-  </si>
-  <si>
-    <t>[344, 433]</t>
-  </si>
-  <si>
-    <t>[300, 620]</t>
-  </si>
-  <si>
-    <t>[559, 520]</t>
-  </si>
-  <si>
-    <t>[531, 94]</t>
-  </si>
-  <si>
-    <t>[459, 510]</t>
+    <t>[457, 102]</t>
+  </si>
+  <si>
+    <t>[61, 135]</t>
+  </si>
+  <si>
+    <t>[353, 667]</t>
+  </si>
+  <si>
+    <t>[560, 674]</t>
+  </si>
+  <si>
+    <t>[344, 638]</t>
+  </si>
+  <si>
+    <t>[332, 777]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -216,6 +216,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -267,34 +270,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[476.0, 167.5]</t>
-  </si>
-  <si>
-    <t>[382.5, 337.0]</t>
-  </si>
-  <si>
-    <t>[352.0, 546.5]</t>
-  </si>
-  <si>
-    <t>[459.5, 590.0]</t>
-  </si>
-  <si>
-    <t>[539.0, 535.0]</t>
-  </si>
-  <si>
-    <t>[[476.0, 167.5], [518.5, 140.75], [433.5, 194.25]]</t>
-  </si>
-  <si>
-    <t>[[382.5, 337.0], [386.75, 279.0], [378.25, 395.0]]</t>
-  </si>
-  <si>
-    <t>[[352.0, 546.5], [363.0, 499.75], [341.0, 593.25]]</t>
-  </si>
-  <si>
-    <t>[[459.5, 590.0], [394.75, 615.0], [524.25, 565.0]]</t>
-  </si>
-  <si>
-    <t>[[539.0, 535.0], [564.0, 537.5], [514.0, 532.5]]</t>
+    <t>[430.5, 390.0]</t>
+  </si>
+  <si>
+    <t>[289.0, 138.5]</t>
+  </si>
+  <si>
+    <t>[237.0, 421.0]</t>
+  </si>
+  <si>
+    <t>[486.5, 690.5]</t>
+  </si>
+  <si>
+    <t>[476.0, 745.5]</t>
+  </si>
+  <si>
+    <t>[[430.5, 390.0], [402.25, 524.0], [458.75, 256.0]]</t>
+  </si>
+  <si>
+    <t>[[289.0, 138.5], [388.0, 130.25], [190.0, 146.75]]</t>
+  </si>
+  <si>
+    <t>[[237.0, 421.0], [164.0, 288.0], [310.0, 554.0]]</t>
+  </si>
+  <si>
+    <t>[[486.5, 690.5], [434.75, 688.75], [538.25, 692.25]]</t>
+  </si>
+  <si>
+    <t>[[476.0, 745.5], [533.0, 719.75], [419.0, 771.25]]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -1317,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +1393,20 @@
       <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1402,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1444,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
         <v>46</v>
@@ -1461,8 +1476,14 @@
       <c r="W2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1473,37 +1494,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1515,10 +1536,10 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1532,8 +1553,14 @@
       <c r="W3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1544,37 +1571,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1586,10 +1613,10 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
@@ -1603,8 +1630,14 @@
       <c r="W4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1615,37 +1648,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1657,10 +1690,10 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
         <v>46</v>
@@ -1674,8 +1707,14 @@
       <c r="W5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1686,37 +1725,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -1728,10 +1767,10 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T6" t="s">
         <v>46</v>
@@ -1743,6 +1782,12 @@
         <v>46</v>
       </c>
       <c r="W6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1862,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1885,22 +1930,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1908,22 +1953,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1931,22 +1976,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1954,22 +1999,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1977,22 +2022,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2000,22 +2045,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
   <si>
     <t>net_idx</t>
   </si>
@@ -132,22 +133,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[457, 102]</t>
-  </si>
-  <si>
-    <t>[61, 135]</t>
-  </si>
-  <si>
-    <t>[353, 667]</t>
-  </si>
-  <si>
-    <t>[560, 674]</t>
-  </si>
-  <si>
-    <t>[344, 638]</t>
-  </si>
-  <si>
-    <t>[332, 777]</t>
+    <t>[325, 789]</t>
+  </si>
+  <si>
+    <t>[64, 244]</t>
+  </si>
+  <si>
+    <t>[505, 174]</t>
+  </si>
+  <si>
+    <t>[132, 370]</t>
+  </si>
+  <si>
+    <t>[189, 726]</t>
+  </si>
+  <si>
+    <t>[439, 545]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -219,6 +220,12 @@
     <t>center_size</t>
   </si>
   <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -270,34 +277,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[430.5, 390.0]</t>
-  </si>
-  <si>
-    <t>[289.0, 138.5]</t>
-  </si>
-  <si>
-    <t>[237.0, 421.0]</t>
-  </si>
-  <si>
-    <t>[486.5, 690.5]</t>
-  </si>
-  <si>
-    <t>[476.0, 745.5]</t>
-  </si>
-  <si>
-    <t>[[430.5, 390.0], [402.25, 524.0], [458.75, 256.0]]</t>
-  </si>
-  <si>
-    <t>[[289.0, 138.5], [388.0, 130.25], [190.0, 146.75]]</t>
-  </si>
-  <si>
-    <t>[[237.0, 421.0], [164.0, 288.0], [310.0, 554.0]]</t>
-  </si>
-  <si>
-    <t>[[486.5, 690.5], [434.75, 688.75], [538.25, 692.25]]</t>
-  </si>
-  <si>
-    <t>[[476.0, 745.5], [533.0, 719.75], [419.0, 771.25]]</t>
+    <t>[287.0, 777.5]</t>
+  </si>
+  <si>
+    <t>[224.5, 536.5]</t>
+  </si>
+  <si>
+    <t>[314.5, 229.0]</t>
+  </si>
+  <si>
+    <t>[348.5, 292.0]</t>
+  </si>
+  <si>
+    <t>[315.5, 477.5]</t>
+  </si>
+  <si>
+    <t>[[287.0, 777.5], [253.0, 761.75], [321.0, 793.25]]</t>
+  </si>
+  <si>
+    <t>[[224.5, 536.5], [289.75, 672.75], [159.25, 400.25]]</t>
+  </si>
+  <si>
+    <t>[[314.5, 229.0], [204.25, 246.5], [424.75, 211.5]]</t>
+  </si>
+  <si>
+    <t>[[348.5, 292.0], [441.75, 243.0], [255.25, 341.0]]</t>
+  </si>
+  <si>
+    <t>[[315.5, 477.5], [238.75, 433.75], [392.25, 521.25]]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -364,6 +371,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 100.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1320,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,8 +1418,14 @@
       <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1417,37 +1436,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1459,13 +1478,13 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U2" t="s">
         <v>46</v>
@@ -1482,8 +1501,14 @@
       <c r="AA2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1494,37 +1519,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1536,10 +1561,10 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1559,8 +1584,14 @@
       <c r="AA3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1571,37 +1602,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1613,10 +1644,10 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
@@ -1636,8 +1667,14 @@
       <c r="AA4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1648,37 +1685,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1690,10 +1727,10 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
         <v>46</v>
@@ -1713,8 +1750,14 @@
       <c r="AA5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1725,37 +1768,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
@@ -1767,10 +1810,10 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
         <v>46</v>
@@ -1788,6 +1831,12 @@
         <v>16</v>
       </c>
       <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1876,13 +1925,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1901,13 +1950,16 @@
       <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1924,143 +1976,206 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>compartment</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -100,15 +112,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -133,22 +136,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[325, 789]</t>
-  </si>
-  <si>
-    <t>[64, 244]</t>
-  </si>
-  <si>
-    <t>[505, 174]</t>
-  </si>
-  <si>
-    <t>[132, 370]</t>
-  </si>
-  <si>
-    <t>[189, 726]</t>
-  </si>
-  <si>
-    <t>[439, 545]</t>
+    <t>[104, 226]</t>
+  </si>
+  <si>
+    <t>[734, 782]</t>
+  </si>
+  <si>
+    <t>[695, 583]</t>
+  </si>
+  <si>
+    <t>[342, 454]</t>
+  </si>
+  <si>
+    <t>[181, 569]</t>
+  </si>
+  <si>
+    <t>[92, 754]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -160,9 +163,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>sources</t>
   </si>
   <si>
@@ -277,34 +277,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[287.0, 777.5]</t>
-  </si>
-  <si>
-    <t>[224.5, 536.5]</t>
-  </si>
-  <si>
-    <t>[314.5, 229.0]</t>
-  </si>
-  <si>
-    <t>[348.5, 292.0]</t>
-  </si>
-  <si>
-    <t>[315.5, 477.5]</t>
-  </si>
-  <si>
-    <t>[[287.0, 777.5], [253.0, 761.75], [321.0, 793.25]]</t>
-  </si>
-  <si>
-    <t>[[224.5, 536.5], [289.75, 672.75], [159.25, 400.25]]</t>
-  </si>
-  <si>
-    <t>[[314.5, 229.0], [204.25, 246.5], [424.75, 211.5]]</t>
-  </si>
-  <si>
-    <t>[[348.5, 292.0], [441.75, 243.0], [255.25, 341.0]]</t>
-  </si>
-  <si>
-    <t>[[315.5, 477.5], [238.75, 433.75], [392.25, 521.25]]</t>
+    <t>[172.5, 417.5]</t>
+  </si>
+  <si>
+    <t>[449.0, 524.0]</t>
+  </si>
+  <si>
+    <t>[744.5, 702.5]</t>
+  </si>
+  <si>
+    <t>[548.5, 538.5]</t>
+  </si>
+  <si>
+    <t>[247.0, 624.0]</t>
+  </si>
+  <si>
+    <t>[[172.5, 417.5], [191.75, 503.25], [153.25, 331.75]]</t>
+  </si>
+  <si>
+    <t>[[449.0, 524.0], [291.5, 385.0], [606.5, 663.0]]</t>
+  </si>
+  <si>
+    <t>[[744.5, 702.5], [754.25, 752.25], [734.75, 652.75]]</t>
+  </si>
+  <si>
+    <t>[[548.5, 538.5], [636.75, 570.75], [460.25, 506.25]]</t>
+  </si>
+  <si>
+    <t>[[247.0, 624.0], [309.5, 549.0], [184.5, 699.0]]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -734,13 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,8 +786,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -798,31 +807,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -831,7 +840,10 @@
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -852,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -876,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -903,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -935,40 +947,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -977,13 +989,13 @@
         <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1003,40 +1015,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1045,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1071,40 +1083,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1113,13 +1125,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1139,40 +1151,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1181,13 +1193,13 @@
         <v>12</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1207,40 +1219,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1249,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1275,40 +1287,40 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1317,13 +1329,13 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1410,13 +1422,13 @@
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>66</v>
@@ -1463,19 +1475,19 @@
         <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
         <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>96</v>
@@ -1487,25 +1499,25 @@
         <v>102</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1531,7 +1543,7 @@
         <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>84</v>
@@ -1546,19 +1558,19 @@
         <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
         <v>96</v>
@@ -1567,28 +1579,28 @@
         <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1614,7 +1626,7 @@
         <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>84</v>
@@ -1629,19 +1641,19 @@
         <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
         <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>96</v>
@@ -1650,28 +1662,28 @@
         <v>99</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1697,7 +1709,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>84</v>
@@ -1712,19 +1724,19 @@
         <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
         <v>96</v>
@@ -1733,28 +1745,28 @@
         <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1780,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>84</v>
@@ -1795,19 +1807,19 @@
         <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
         <v>96</v>
@@ -1816,28 +1828,28 @@
         <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="W6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1906,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1912,10 +1924,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1962,22 +1974,22 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">

--- a/tests/initiate_excel_files/feedback.xlsx
+++ b/tests/initiate_excel_files/feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="120">
   <si>
     <t>net_idx</t>
   </si>
@@ -112,6 +112,9 @@
     <t>shape_idx</t>
   </si>
   <si>
+    <t>spec_dash</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
@@ -136,22 +139,22 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>[104, 226]</t>
-  </si>
-  <si>
-    <t>[734, 782]</t>
-  </si>
-  <si>
-    <t>[695, 583]</t>
-  </si>
-  <si>
-    <t>[342, 454]</t>
-  </si>
-  <si>
-    <t>[181, 569]</t>
-  </si>
-  <si>
-    <t>[92, 754]</t>
+    <t>[188, 348]</t>
+  </si>
+  <si>
+    <t>[519, 405]</t>
+  </si>
+  <si>
+    <t>[274, 44]</t>
+  </si>
+  <si>
+    <t>[95, 221]</t>
+  </si>
+  <si>
+    <t>[598, 152]</t>
+  </si>
+  <si>
+    <t>[680, 218]</t>
   </si>
   <si>
     <t>[60, 40]</t>
@@ -277,34 +280,34 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[172.5, 417.5]</t>
-  </si>
-  <si>
-    <t>[449.0, 524.0]</t>
-  </si>
-  <si>
-    <t>[744.5, 702.5]</t>
-  </si>
-  <si>
-    <t>[548.5, 538.5]</t>
-  </si>
-  <si>
-    <t>[247.0, 624.0]</t>
-  </si>
-  <si>
-    <t>[[172.5, 417.5], [191.75, 503.25], [153.25, 331.75]]</t>
-  </si>
-  <si>
-    <t>[[449.0, 524.0], [291.5, 385.0], [606.5, 663.0]]</t>
-  </si>
-  <si>
-    <t>[[744.5, 702.5], [754.25, 752.25], [734.75, 652.75]]</t>
-  </si>
-  <si>
-    <t>[[548.5, 538.5], [636.75, 570.75], [460.25, 506.25]]</t>
-  </si>
-  <si>
-    <t>[[247.0, 624.0], [309.5, 549.0], [184.5, 699.0]]</t>
+    <t>[423.0, 270.0]</t>
+  </si>
+  <si>
+    <t>[383.5, 396.5]</t>
+  </si>
+  <si>
+    <t>[426.5, 244.5]</t>
+  </si>
+  <si>
+    <t>[214.5, 152.5]</t>
+  </si>
+  <si>
+    <t>[417.5, 239.5]</t>
+  </si>
+  <si>
+    <t>[[423.0, 270.0], [525.5, 221.0], [320.5, 319.0]]</t>
+  </si>
+  <si>
+    <t>[[383.5, 396.5], [300.75, 382.25], [466.25, 410.75]]</t>
+  </si>
+  <si>
+    <t>[[426.5, 244.5], [487.75, 334.75], [365.25, 154.25]]</t>
+  </si>
+  <si>
+    <t>[[214.5, 152.5], [259.25, 108.25], [169.75, 196.75]]</t>
+  </si>
+  <si>
+    <t>[[417.5, 239.5], [271.25, 240.25], [563.75, 238.75]]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -853,13 +856,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,8 +932,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -947,34 +953,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -992,13 +998,16 @@
         <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1015,34 +1024,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1060,13 +1069,16 @@
         <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1083,34 +1095,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1128,13 +1140,16 @@
         <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1151,34 +1166,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1196,13 +1211,16 @@
         <v>24</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1219,34 +1237,34 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1264,13 +1282,16 @@
         <v>24</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1287,34 +1308,34 @@
         <v>-1</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1332,10 +1353,13 @@
         <v>24</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s">
         <v>23</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1362,64 +1386,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1431,10 +1455,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1448,37 +1472,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -1490,13 +1514,13 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
@@ -1531,37 +1555,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -1573,10 +1597,10 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
@@ -1614,37 +1638,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
@@ -1656,10 +1680,10 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -1697,37 +1721,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
@@ -1739,10 +1763,10 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
         <v>24</v>
@@ -1780,37 +1804,37 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -1822,10 +1846,10 @@
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T6" t="s">
         <v>24</v>
@@ -1971,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1997,25 +2021,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2023,25 +2047,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2049,25 +2073,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2075,25 +2099,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2101,25 +2125,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2127,25 +2151,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2163,10 +2187,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
